--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-420-Advanced-Data-Access-Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05C0B13-008E-4AEB-AB2B-3105AD431A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1774843-AD3A-4A54-B653-213B04FFCFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-16290" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="146">
   <si>
     <t>Year</t>
   </si>
@@ -464,18 +464,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -681,26 +669,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3668,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036A59E6-CB91-4FBA-9D56-F0C35E98DF8E}">
   <dimension ref="B1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D123"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +3672,7 @@
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -3692,1338 +3680,1339 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
+      <c r="B3" s="13">
         <v>43922</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>43647</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>43282</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>42917</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>42552</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>42186</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>41821</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="14">
         <v>41456</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>41091</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="14">
         <v>40725</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>40360</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="14">
         <v>39995</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+      <c r="B15" s="13">
         <v>39630</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="14">
         <v>39264</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="B17" s="13">
         <v>38899</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+      <c r="B18" s="14">
         <v>38534</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
+      <c r="B19" s="13">
         <v>38169</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
+      <c r="B20" s="14">
         <v>37803</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
+      <c r="B21" s="13">
         <v>37438</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
+      <c r="B22" s="14">
         <v>37073</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9">
+      <c r="B23" s="13">
         <v>36708</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11">
+      <c r="B24" s="14">
         <v>36342</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
+      <c r="B25" s="13">
         <v>35977</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11">
+      <c r="B26" s="14">
         <v>35612</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
+      <c r="B27" s="13">
         <v>35247</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11">
+      <c r="B28" s="14">
         <v>34881</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
+      <c r="B29" s="13">
         <v>34516</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11">
+      <c r="B30" s="14">
         <v>34151</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
+      <c r="B31" s="13">
         <v>33786</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11">
+      <c r="B32" s="14">
         <v>33420</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+      <c r="B33" s="13">
         <v>33055</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11">
+      <c r="B34" s="14">
         <v>32690</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
+      <c r="B35" s="13">
         <v>32325</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11">
+      <c r="B36" s="14">
         <v>31959</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
+      <c r="B37" s="13">
         <v>31594</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11">
+      <c r="B38" s="14">
         <v>31229</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9">
+      <c r="B39" s="13">
         <v>30864</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11">
+      <c r="B40" s="14">
         <v>30498</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9">
+      <c r="B41" s="13">
         <v>30133</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11">
+      <c r="B42" s="14">
         <v>29768</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9">
+      <c r="B43" s="13">
         <v>29403</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11">
+      <c r="B44" s="14">
         <v>29037</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9">
+      <c r="B45" s="13">
         <v>28672</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="11">
+      <c r="B46" s="14">
         <v>28307</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9">
+      <c r="B47" s="13">
         <v>27942</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="11">
+      <c r="B48" s="14">
         <v>27576</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9">
+      <c r="B49" s="13">
         <v>27211</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="11">
+      <c r="B50" s="14">
         <v>26846</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9">
+      <c r="B51" s="13">
         <v>26481</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11">
+      <c r="B52" s="14">
         <v>26115</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9">
+      <c r="B53" s="13">
         <v>25750</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="11">
+      <c r="B54" s="14">
         <v>25385</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="C54" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="9">
+      <c r="B55" s="13">
         <v>25020</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="11">
+      <c r="B56" s="14">
         <v>24654</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="C56" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="9">
+      <c r="B57" s="13">
         <v>24289</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="C57" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="11">
+      <c r="B58" s="14">
         <v>23924</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="9">
+      <c r="B59" s="13">
         <v>23559</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="C59" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="11">
+      <c r="B60" s="14">
         <v>23193</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="C60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="9">
+      <c r="B61" s="13">
         <v>22828</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="11">
+      <c r="B62" s="14">
         <v>22463</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="9">
+      <c r="B63" s="13">
         <v>22098</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="11">
+      <c r="B64" s="14">
         <v>21732</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="C64" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="9">
+      <c r="B65" s="13">
         <v>21367</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="11">
+      <c r="B66" s="14">
         <v>21002</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="9">
+      <c r="B67" s="13">
         <v>20637</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="C67" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="11">
+      <c r="B68" s="14">
         <v>20271</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="9">
+      <c r="B69" s="13">
         <v>19906</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="C69" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="11">
+      <c r="B70" s="14">
         <v>19541</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="9">
+      <c r="B71" s="13">
         <v>19176</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="C71" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="11">
+      <c r="B72" s="14">
         <v>18810</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="9">
+      <c r="B73" s="13">
         <v>18445</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="C73" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="11">
+      <c r="B74" s="14">
         <v>18080</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="C74" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="9">
+      <c r="B75" s="13">
         <v>17715</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="C75" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="11">
+      <c r="B76" s="14">
         <v>17349</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="C76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="9">
+      <c r="B77" s="13">
         <v>16984</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="C77" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="11">
+      <c r="B78" s="14">
         <v>16619</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="C78" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="9">
+      <c r="B79" s="13">
         <v>16254</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="C79" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="11">
+      <c r="B80" s="14">
         <v>15888</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="C80" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="9">
+      <c r="B81" s="13">
         <v>15523</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="10" t="s">
+      <c r="C81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11">
+      <c r="B82" s="14">
         <v>15158</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="12" t="s">
+      <c r="C82" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="9">
+      <c r="B83" s="13">
         <v>14793</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="C83" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="11">
+      <c r="B84" s="14">
         <v>14427</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="12" t="s">
+      <c r="C84" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="9">
+      <c r="B85" s="13">
         <v>14062</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="C85" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="11">
+      <c r="B86" s="14">
         <v>13697</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="C86" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="9">
+      <c r="B87" s="13">
         <v>13332</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="C87" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="11">
+      <c r="B88" s="14">
         <v>12966</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="12" t="s">
+      <c r="C88" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="9">
+      <c r="B89" s="13">
         <v>12601</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="C89" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="11">
+      <c r="B90" s="14">
         <v>12236</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="12" t="s">
+      <c r="C90" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="9">
+      <c r="B91" s="13">
         <v>11871</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="C91" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="11">
+      <c r="B92" s="14">
         <v>11505</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="C92" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="9">
+      <c r="B93" s="13">
         <v>11140</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="C93" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="11">
+      <c r="B94" s="14">
         <v>10775</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" s="12" t="s">
+      <c r="C94" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="9">
+      <c r="B95" s="13">
         <v>10410</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="C95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="11">
+      <c r="B96" s="14">
         <v>10044</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="12" t="s">
+      <c r="C96" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="9">
+      <c r="B97" s="13">
         <v>9679</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="C97" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="11">
+      <c r="B98" s="14">
         <v>9314</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="12" t="s">
+      <c r="C98" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="9">
+      <c r="B99" s="13">
         <v>8949</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="C99" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="11">
+      <c r="B100" s="14">
         <v>8583</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="12" t="s">
+      <c r="C100" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="9">
+      <c r="B101" s="13">
         <v>8218</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="C101" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="11">
+      <c r="B102" s="14">
         <v>7853</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="12" t="s">
+      <c r="C102" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="9">
+      <c r="B103" s="13">
         <v>7488</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="11">
+      <c r="B104" s="14">
         <v>7122</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="12" t="s">
+      <c r="C104" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="9">
+      <c r="B105" s="13">
         <v>6757</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="10" t="s">
+      <c r="C105" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="11">
+      <c r="B106" s="14">
         <v>6392</v>
       </c>
-      <c r="C106" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="12" t="s">
+      <c r="C106" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="9">
+      <c r="B107" s="13">
         <v>6027</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107" s="10" t="s">
+      <c r="C107" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="11">
+      <c r="B108" s="14">
         <v>5661</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D108" s="12" t="s">
+      <c r="C108" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="9">
+      <c r="B109" s="13">
         <v>5296</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="C109" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="11">
+      <c r="B110" s="14">
         <v>4931</v>
       </c>
-      <c r="C110" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" s="12" t="s">
+      <c r="C110" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="9">
+      <c r="B111" s="13">
         <v>4566</v>
       </c>
-      <c r="C111" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="C111" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="11">
+      <c r="B112" s="14">
         <v>4200</v>
       </c>
-      <c r="C112" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="12" t="s">
+      <c r="C112" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="9">
+      <c r="B113" s="13">
         <v>3835</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="10" t="s">
+      <c r="C113" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="11">
+      <c r="B114" s="14">
         <v>3470</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D114" s="12" t="s">
+      <c r="C114" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="9">
+      <c r="B115" s="13">
         <v>3105</v>
       </c>
-      <c r="C115" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="11">
+      <c r="B116" s="14">
         <v>2739</v>
       </c>
-      <c r="C116" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="12" t="s">
+      <c r="C116" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="9">
+      <c r="B117" s="13">
         <v>2374</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D117" s="10" t="s">
+      <c r="C117" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="11">
+      <c r="B118" s="14">
         <v>2009</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="12" t="s">
+      <c r="C118" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="9">
+      <c r="B119" s="13">
         <v>1644</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D119" s="10" t="s">
+      <c r="C119" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="11">
+      <c r="B120" s="14">
         <v>1278</v>
       </c>
-      <c r="C120" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D120" s="12" t="s">
+      <c r="C120" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="9">
+      <c r="B121" s="13">
         <v>913</v>
       </c>
-      <c r="C121" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D121" s="10" t="s">
+      <c r="C121" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="11">
+      <c r="B122" s="14">
         <v>548</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C122" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="13">
+      <c r="B123" s="15">
         <v>183</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="14" t="s">
+      <c r="C123" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-420-Advanced-Data-Access-Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1774843-AD3A-4A54-B653-213B04FFCFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D41243-C9FC-4538-8354-308490F712E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-16290" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="147">
   <si>
     <t>Year</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value Value</t>
-  </si>
-  <si>
     <t>329.46 million</t>
   </si>
   <si>
@@ -464,6 +461,12 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Population Value</t>
   </si>
 </sst>
 </file>
@@ -970,14 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AQ22"/>
+  <dimension ref="B2:AR45"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ22"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -985,2664 +989,5415 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:44" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="Y2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AC2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AG2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AK2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AO2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AQ2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1997</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4">
         <v>267783607</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="4">
         <v>1636096</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="5">
         <v>611</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="4">
         <v>18208</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="K3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="5">
         <v>6.8</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="M3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="4">
         <v>96153</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3" s="5">
+      <c r="S3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="5">
         <v>35.9</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="4">
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="4">
         <v>498534</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W3" s="5">
+      <c r="W3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="5">
         <v>186.2</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="4">
         <v>1023201</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="5">
         <v>382.1</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="4">
         <v>11558475</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF3" s="6">
         <v>4316.3</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH3" s="4">
         <v>2460526</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ3" s="5">
         <v>918.8</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL3" s="4">
         <v>7743760</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN3" s="6">
         <v>2891.8</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP3" s="4">
         <v>1354189</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR3" s="5">
         <v>505.7</v>
       </c>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1998</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4">
         <v>270248003</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4">
         <v>1533887</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="5">
         <v>567.6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="4">
         <v>16974</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="K4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="5">
         <v>6.3</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="M4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="4">
         <v>93144</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="5">
+      <c r="S4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="5">
         <v>34.5</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="U4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="4">
         <v>447186</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="W4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="5">
         <v>165.5</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" s="4">
         <v>976583</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="5">
         <v>361.4</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD4" s="4">
         <v>10951827</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF4" s="6">
         <v>4052.5</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH4" s="4">
         <v>2332735</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ4" s="5">
         <v>863.2</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL4" s="4">
         <v>7376311</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN4" s="6">
         <v>2729.5</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP4" s="4">
         <v>1242781</v>
       </c>
-      <c r="AP4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" s="5">
         <v>459.9</v>
       </c>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1999</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4">
         <v>272690813</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4">
         <v>1426044</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="5">
         <v>523</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="4">
         <v>15522</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="K5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="5">
         <v>5.7</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="M5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="4">
         <v>89411</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="S5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="5">
         <v>32.799999999999997</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="4">
+      <c r="U5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="4">
         <v>409371</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="W5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="5">
         <v>150.1</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="4">
         <v>911740</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" s="5">
         <v>334.3</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD5" s="4">
         <v>10208334</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF5" s="6">
         <v>3743.6</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" s="4">
         <v>2100739</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ5" s="5">
         <v>770.4</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL5" s="4">
         <v>6955520</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN5" s="6">
         <v>2550.6999999999998</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP5" s="4">
         <v>1152075</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR5" s="5">
         <v>422.5</v>
       </c>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4">
         <v>281421906</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4">
         <v>1425486</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="5">
         <v>506.5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="4">
         <v>15586</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="K6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="5">
         <v>5.5</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="M6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" s="4">
         <v>90178</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="S6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="5">
         <v>32</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="U6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="4">
         <v>408016</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W6" s="5">
-        <v>145</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="W6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="5">
+        <v>145</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z6" s="4">
         <v>911706</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="5">
         <v>324</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="4">
         <v>10182584</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="6">
         <v>3618.3</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH6" s="4">
         <v>2050992</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ6" s="5">
         <v>728.8</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL6" s="4">
         <v>6971590</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN6" s="6">
         <v>2477.3000000000002</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP6" s="4">
         <v>1160002</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ6" s="5">
+      <c r="AQ6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR6" s="5">
         <v>412.2</v>
       </c>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>20015</v>
+        <v>2001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4">
         <v>285317559</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4">
         <v>1439480</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="5">
         <v>504.5</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="4">
         <v>16037</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="K7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="5">
         <v>5.6</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="M7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" s="4">
         <v>90863</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="S7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="5">
         <v>31.8</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="U7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="4">
         <v>423557</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="W7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="5">
         <v>148.5</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z7" s="4">
         <v>909023</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="5">
         <v>318.60000000000002</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD7" s="4">
         <v>10437189</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" s="6">
         <v>3658.1</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7" s="4">
         <v>2116531</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ7" s="5">
         <v>741.8</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL7" s="4">
         <v>7092267</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN7" s="6">
         <v>2485.6999999999998</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP7" s="4">
         <v>1228391</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ7" s="5">
+      <c r="AQ7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR7" s="5">
         <v>430.5</v>
       </c>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4">
         <v>287973924</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="4">
         <v>1423677</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="5">
         <v>494.4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="4">
         <v>16229</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="5">
         <v>5.6</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="M8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="4">
         <v>95235</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="S8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="5">
         <v>33.1</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="U8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="4">
         <v>420806</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" s="5">
+      <c r="W8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="5">
         <v>146.1</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z8" s="4">
         <v>891407</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB8" s="5">
         <v>309.5</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="4">
         <v>10455277</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF8" s="6">
         <v>3630.6</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH8" s="4">
         <v>2151252</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ8" s="5">
         <v>747</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL8" s="4">
         <v>7057379</v>
       </c>
-      <c r="AL8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN8" s="6">
         <v>2450.6999999999998</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO8" s="4">
+      <c r="AO8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP8" s="4">
         <v>1246646</v>
       </c>
-      <c r="AP8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ8" s="5">
+      <c r="AQ8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR8" s="5">
         <v>432.9</v>
       </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4">
         <v>290788976</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4">
         <v>1383676</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="5">
         <v>475.8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="4">
         <v>16528</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="K9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="5">
         <v>5.7</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="M9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="4">
         <v>93883</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="S9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="U9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="4">
         <v>414235</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="W9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="5">
         <v>142.5</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z9" s="4">
         <v>859030</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB9" s="5">
         <v>295.39999999999998</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="4">
         <v>10442862</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF9" s="6">
         <v>3591.2</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH9" s="4">
         <v>2154834</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ9" s="5">
         <v>741</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL9" s="4">
         <v>7026802</v>
       </c>
-      <c r="AL9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM9" s="6">
+      <c r="AM9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN9" s="6">
         <v>2416.5</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO9" s="4">
+      <c r="AO9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP9" s="4">
         <v>1261226</v>
       </c>
-      <c r="AP9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ9" s="5">
+      <c r="AQ9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR9" s="5">
         <v>433.7</v>
       </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4">
         <v>293656842</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4">
         <v>1360088</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="5">
         <v>463.2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="4">
         <v>16148</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="K10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="5">
         <v>5.5</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="M10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R10" s="4">
         <v>95089</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="S10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="5">
         <v>32.4</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="U10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="4">
         <v>401470</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="W10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="5">
         <v>136.69999999999999</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z10" s="4">
         <v>847381</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB10" s="5">
         <v>288.60000000000002</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" s="4">
         <v>10319386</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF10" s="6">
         <v>3514.1</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH10" s="4">
         <v>2144446</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI10" s="5">
+      <c r="AI10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ10" s="5">
         <v>730.3</v>
       </c>
-      <c r="AJ10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK10" s="4">
+      <c r="AK10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL10" s="4">
         <v>6937089</v>
       </c>
-      <c r="AL10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN10" s="6">
         <v>2362.3000000000002</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO10" s="4">
+      <c r="AO10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP10" s="4">
         <v>1237851</v>
       </c>
-      <c r="AP10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ10" s="5">
+      <c r="AQ10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR10" s="5">
         <v>421.5</v>
       </c>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="4">
         <v>296507061</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="4">
         <v>1390745</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="5">
         <v>469</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="4">
         <v>16740</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="K11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="5">
         <v>5.6</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="M11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R11" s="4">
         <v>94347</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="S11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="5">
         <v>31.8</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="U11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="4">
         <v>417438</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W11" s="5">
+      <c r="W11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X11" s="5">
         <v>140.80000000000001</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="4">
         <v>862220</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB11" s="5">
         <v>290.8</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD11" s="4">
         <v>10174754</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF11" s="6">
         <v>3431.5</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH11" s="4">
         <v>2155448</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ11" s="5">
         <v>726.9</v>
       </c>
-      <c r="AJ11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL11" s="4">
         <v>6783447</v>
       </c>
-      <c r="AL11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN11" s="6">
         <v>2287.8000000000002</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO11" s="4">
+      <c r="AO11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP11" s="4">
         <v>1235859</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ11" s="5">
+      <c r="AQ11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR11" s="5">
         <v>416.8</v>
       </c>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2006</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="4">
         <v>299398484</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="4">
         <v>1435123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="5">
         <v>479.3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="4">
         <v>17309</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="K12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" s="5">
         <v>5.8</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="M12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R12" s="4">
         <v>94472</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="S12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" s="5">
         <v>31.6</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U12" s="4">
+      <c r="U12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" s="4">
         <v>449246</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="W12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" s="5">
         <v>150</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" s="4">
         <v>874096</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB12" s="5">
         <v>292</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD12" s="4">
         <v>10019601</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF12" s="6">
         <v>3346.6</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH12" s="4">
         <v>2194993</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ12" s="5">
         <v>733.1</v>
       </c>
-      <c r="AJ12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK12" s="4">
+      <c r="AK12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL12" s="4">
         <v>6626363</v>
       </c>
-      <c r="AL12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN12" s="6">
         <v>2213.1999999999998</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO12" s="4">
+      <c r="AO12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP12" s="4">
         <v>1198245</v>
       </c>
-      <c r="AP12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ12" s="5">
+      <c r="AQ12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR12" s="5">
         <v>400.2</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2007</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4">
         <v>301621157</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4">
         <v>1422970</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="5">
         <v>471.8</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="4">
         <v>17128</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="K13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="5">
         <v>5.7</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="M13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="4">
         <v>92160</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="S13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="5">
         <v>30.6</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="4">
+      <c r="U13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" s="4">
         <v>447324</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W13" s="5">
+      <c r="W13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" s="5">
         <v>148.30000000000001</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z13" s="4">
         <v>866358</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB13" s="5">
         <v>287.2</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD13" s="4">
         <v>9882212</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF13" s="6">
         <v>3276.4</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH13" s="4">
         <v>2190198</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI13" s="5">
+      <c r="AI13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ13" s="5">
         <v>726.1</v>
       </c>
-      <c r="AJ13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL13" s="4">
         <v>6591542</v>
       </c>
-      <c r="AL13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN13" s="6">
         <v>2185.4</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO13" s="4">
+      <c r="AO13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP13" s="4">
         <v>1100472</v>
       </c>
-      <c r="AP13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ13" s="5">
+      <c r="AQ13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR13" s="5">
         <v>364.9</v>
       </c>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2008</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4">
         <v>304059724</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="4">
         <v>1394461</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="5">
         <v>458.6</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="4">
         <v>16465</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="K14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="5">
         <v>5.4</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="M14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="4">
         <v>90750</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="S14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" s="5">
         <v>29.8</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="4">
+      <c r="U14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V14" s="4">
         <v>443563</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W14" s="5">
+      <c r="W14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" s="5">
         <v>145.9</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" s="4">
         <v>843683</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB14" s="5">
         <v>277.5</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD14" s="4">
         <v>9774152</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF14" s="6">
         <v>3214.6</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH14" s="4">
         <v>2228887</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ14" s="5">
         <v>733</v>
       </c>
-      <c r="AJ14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK14" s="4">
+      <c r="AK14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL14" s="4">
         <v>6586206</v>
       </c>
-      <c r="AL14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN14" s="6">
         <v>2166.1</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO14" s="4">
+      <c r="AO14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP14" s="4">
         <v>959059</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ14" s="5">
+      <c r="AQ14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR14" s="5">
         <v>315.39999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2009</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="4">
         <v>307006550</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="4">
         <v>1325896</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="5">
         <v>431.9</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="4">
         <v>15399</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="K15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="5">
         <v>5</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="M15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R15" s="4">
         <v>89241</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="S15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T15" s="5">
         <v>29.1</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U15" s="4">
+      <c r="U15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" s="4">
         <v>408742</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="W15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="5">
         <v>133.1</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" s="4">
         <v>812514</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB15" s="5">
         <v>264.7</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC15" s="4">
+      <c r="AC15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD15" s="4">
         <v>9337060</v>
       </c>
-      <c r="AD15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF15" s="6">
         <v>3041.3</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG15" s="4">
+      <c r="AG15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH15" s="4">
         <v>2203313</v>
       </c>
-      <c r="AH15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ15" s="5">
         <v>717.7</v>
       </c>
-      <c r="AJ15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK15" s="4">
+      <c r="AK15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL15" s="4">
         <v>6338095</v>
       </c>
-      <c r="AL15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN15" s="6">
         <v>2064.5</v>
       </c>
-      <c r="AN15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO15" s="4">
+      <c r="AO15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP15" s="4">
         <v>795652</v>
       </c>
-      <c r="AP15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ15" s="5">
+      <c r="AQ15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR15" s="5">
         <v>259.2</v>
       </c>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2010</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4">
         <v>309330219</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="4">
         <v>1251248</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="5">
         <v>404.5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="4">
         <v>14722</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="K16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="5">
         <v>4.8</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="M16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R16" s="4">
         <v>85593</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="S16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T16" s="5">
         <v>27.7</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U16" s="4">
+      <c r="U16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" s="4">
         <v>369089</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W16" s="5">
+      <c r="W16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" s="5">
         <v>119.3</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z16" s="4">
         <v>781844</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB16" s="5">
         <v>252.8</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC16" s="4">
+      <c r="AC16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD16" s="4">
         <v>9112625</v>
       </c>
-      <c r="AD16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE16" s="6">
+      <c r="AE16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" s="6">
         <v>2945.9</v>
       </c>
-      <c r="AF16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH16" s="4">
         <v>2168459</v>
       </c>
-      <c r="AH16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ16" s="5">
         <v>701</v>
       </c>
-      <c r="AJ16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK16" s="4">
+      <c r="AK16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL16" s="4">
         <v>6204601</v>
       </c>
-      <c r="AL16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM16" s="6">
+      <c r="AM16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN16" s="6">
         <v>2005.8</v>
       </c>
-      <c r="AN16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO16" s="4">
+      <c r="AO16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP16" s="4">
         <v>739565</v>
       </c>
-      <c r="AP16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ16" s="5">
+      <c r="AQ16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR16" s="5">
         <v>239.1</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2011</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="4">
         <v>311587816</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="4">
         <v>1206005</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="5">
         <v>387.1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="4">
         <v>14661</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="K17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="5">
         <v>4.7</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="M17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R17" s="4">
         <v>84175</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="S17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T17" s="5">
         <v>27</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U17" s="4">
+      <c r="U17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V17" s="4">
         <v>354746</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W17" s="5">
+      <c r="W17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" s="5">
         <v>113.9</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z17" s="4">
         <v>752423</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB17" s="5">
         <v>241.5</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17" s="4">
         <v>9052743</v>
       </c>
-      <c r="AD17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE17" s="6">
+      <c r="AE17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" s="6">
         <v>2905.4</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH17" s="4">
         <v>2185140</v>
       </c>
-      <c r="AH17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI17" s="5">
+      <c r="AI17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ17" s="5">
         <v>701.3</v>
       </c>
-      <c r="AJ17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK17" s="4">
+      <c r="AK17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL17" s="4">
         <v>6151095</v>
       </c>
-      <c r="AL17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN17" s="6">
         <v>1974.1</v>
       </c>
-      <c r="AN17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO17" s="4">
+      <c r="AO17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP17" s="4">
         <v>716508</v>
       </c>
-      <c r="AP17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ17" s="5">
+      <c r="AQ17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR17" s="5">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2012</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="4">
         <v>313873685</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="4">
         <v>1217057</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="5">
         <v>387.8</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="4">
         <v>14856</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="K18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="5">
         <v>4.7</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="M18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R18" s="4">
         <v>85141</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S18" s="5">
+      <c r="S18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18" s="5">
         <v>27.1</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U18" s="4">
+      <c r="U18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V18" s="4">
         <v>355051</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W18" s="5">
+      <c r="W18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="5">
         <v>113.1</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z18" s="4">
         <v>762009</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB18" s="5">
         <v>242.8</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC18" s="4">
+      <c r="AC18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD18" s="4">
         <v>9001992</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF18" s="6">
         <v>2868</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH18" s="4">
         <v>2109932</v>
       </c>
-      <c r="AH18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ18" s="5">
         <v>672.2</v>
       </c>
-      <c r="AJ18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK18" s="4">
+      <c r="AK18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL18" s="4">
         <v>6168874</v>
       </c>
-      <c r="AL18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN18" s="6">
         <v>1965.4</v>
       </c>
-      <c r="AN18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO18" s="4">
+      <c r="AO18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP18" s="4">
         <v>723186</v>
       </c>
-      <c r="AP18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ18" s="5">
+      <c r="AQ18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR18" s="5">
         <v>230.4</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2013</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4">
         <v>316497531</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4">
         <v>1168298</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="5">
         <v>369.1</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="4">
         <v>14319</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="K19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="5">
         <v>4.5</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="4">
         <v>113695</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="O19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="5">
         <v>35.9</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R19" s="4">
         <v>82109</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="S19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19" s="5">
         <v>25.9</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U19" s="4">
+      <c r="U19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V19" s="4">
         <v>345093</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W19" s="5">
+      <c r="W19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="5">
         <v>109</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z19" s="4">
         <v>726777</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB19" s="5">
         <v>229.6</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC19" s="4">
+      <c r="AC19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD19" s="4">
         <v>8651892</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF19" s="6">
         <v>2733.6</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG19" s="4">
+      <c r="AG19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH19" s="4">
         <v>1932139</v>
       </c>
-      <c r="AH19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI19" s="5">
+      <c r="AI19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ19" s="5">
         <v>610.5</v>
       </c>
-      <c r="AJ19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK19" s="4">
+      <c r="AK19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL19" s="4">
         <v>6019465</v>
       </c>
-      <c r="AL19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN19" s="6">
         <v>1901.9</v>
       </c>
-      <c r="AN19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO19" s="4">
+      <c r="AO19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP19" s="4">
         <v>700288</v>
       </c>
-      <c r="AP19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ19" s="5">
+      <c r="AQ19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR19" s="5">
         <v>221.3</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>2014</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="4">
         <v>318907401</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="4">
         <v>1153022</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" s="5">
         <v>361.6</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="4">
         <v>14164</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="K20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="M20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" s="4">
         <v>118027</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="O20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="5">
         <v>37</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" s="4">
         <v>84864</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="S20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" s="5">
         <v>26.6</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U20" s="4">
+      <c r="U20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V20" s="4">
         <v>322905</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W20" s="5">
+      <c r="W20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="5">
         <v>101.3</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z20" s="4">
         <v>731089</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB20" s="5">
         <v>229.2</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC20" s="4">
+      <c r="AC20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD20" s="4">
         <v>8209010</v>
       </c>
-      <c r="AD20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE20" s="6">
+      <c r="AE20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF20" s="6">
         <v>2574.1</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG20" s="4">
+      <c r="AG20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH20" s="4">
         <v>1713153</v>
       </c>
-      <c r="AH20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ20" s="5">
         <v>537.20000000000005</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK20" s="4">
+      <c r="AK20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL20" s="4">
         <v>5809054</v>
       </c>
-      <c r="AL20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN20" s="6">
         <v>1821.5</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO20" s="4">
+      <c r="AO20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP20" s="4">
         <v>686803</v>
       </c>
-      <c r="AP20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ20" s="5">
+      <c r="AQ20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR20" s="5">
         <v>215.4</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <v>20156</v>
+        <v>2015</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4">
         <v>320896618</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="4">
         <v>1199310</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="5">
         <v>373.7</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="4">
         <v>15883</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="K21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="4">
         <v>126134</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="O21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="5">
         <v>39.299999999999997</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" s="4">
         <v>91261</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S21" s="5">
+      <c r="S21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T21" s="5">
         <v>28.4</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U21" s="4">
+      <c r="U21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V21" s="4">
         <v>328109</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W21" s="5">
+      <c r="W21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" s="5">
         <v>102.2</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z21" s="4">
         <v>764057</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB21" s="5">
         <v>238.1</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC21" s="4">
+      <c r="AC21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD21" s="4">
         <v>8024115</v>
       </c>
-      <c r="AD21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE21" s="6">
+      <c r="AE21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF21" s="6">
         <v>2500.5</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH21" s="4">
         <v>1587564</v>
       </c>
-      <c r="AH21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI21" s="5">
+      <c r="AI21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ21" s="5">
         <v>494.7</v>
       </c>
-      <c r="AJ21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK21" s="4">
+      <c r="AK21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL21" s="4">
         <v>5723488</v>
       </c>
-      <c r="AL21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN21" s="6">
         <v>1783.6</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO21" s="4">
+      <c r="AO21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP21" s="4">
         <v>713063</v>
       </c>
-      <c r="AP21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ21" s="5">
+      <c r="AQ21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR21" s="5">
         <v>222.2</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2016</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4">
         <v>323127513</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="4">
         <v>1248185</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="5">
         <v>386.3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="4">
         <v>17250</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="K22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="5">
         <v>5.3</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="4">
         <v>130603</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="O22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="5">
         <v>40.4</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" s="4">
         <v>95730</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="S22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="5">
         <v>29.6</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U22" s="4">
+      <c r="U22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V22" s="4">
         <v>332198</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W22" s="5">
+      <c r="W22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="5">
         <v>102.8</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z22" s="4">
         <v>803007</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB22" s="5">
         <v>248.5</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD22" s="4">
         <v>7919035</v>
       </c>
-      <c r="AD22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE22" s="6">
+      <c r="AE22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF22" s="6">
         <v>2450.6999999999998</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH22" s="4">
         <v>1515096</v>
       </c>
-      <c r="AH22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ22" s="5">
         <v>468.9</v>
       </c>
-      <c r="AJ22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK22" s="4">
+      <c r="AK22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL22" s="4">
         <v>5638455</v>
       </c>
-      <c r="AL22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM22" s="6">
+      <c r="AM22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN22" s="6">
         <v>1745</v>
       </c>
-      <c r="AN22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO22" s="4">
+      <c r="AO22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP22" s="4">
         <v>765484</v>
       </c>
-      <c r="AP22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="4">
+        <v>267783607</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1636096</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="5">
+        <v>611</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" s="4">
+        <v>18208</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R26" s="4">
+        <v>96153</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V26" s="4">
+        <v>498534</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" s="5">
+        <v>186.2</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1023201</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>382.1</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>11558475</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>4316.3</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>2460526</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>918.8</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>7743760</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN26" s="6">
+        <v>2891.8</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>1354189</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>505.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="4">
+        <v>270248003</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1533887</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="5">
+        <v>567.6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="4">
+        <v>16974</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R27" s="4">
+        <v>93144</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T27" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V27" s="4">
+        <v>447186</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X27" s="5">
+        <v>165.5</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>976583</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>361.4</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>10951827</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>4052.5</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>2332735</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>863.2</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>7376311</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN27" s="6">
+        <v>2729.5</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>1242781</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>459.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="4">
+        <v>272690813</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1426044</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="5">
+        <v>523</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15522</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="4">
+        <v>89411</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T28" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V28" s="4">
+        <v>409371</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X28" s="5">
+        <v>150.1</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>911740</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>334.3</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>10208334</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>3743.6</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>2100739</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>770.4</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>6955520</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>2550.6999999999998</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>1152075</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>422.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="4">
+        <v>281421906</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1425486</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="5">
+        <v>506.5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="4">
+        <v>15586</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" s="4">
+        <v>90178</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T29" s="5">
+        <v>32</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V29" s="4">
+        <v>408016</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X29" s="5">
+        <v>145</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>911706</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>324</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>10182584</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>3618.3</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>2050992</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>728.8</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>6971590</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN29" s="6">
+        <v>2477.3000000000002</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>1160002</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>412.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="4">
+        <v>285317559</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1439480</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="5">
+        <v>504.5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="4">
+        <v>16037</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R30" s="4">
+        <v>90863</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T30" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V30" s="4">
+        <v>423557</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X30" s="5">
+        <v>148.5</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>909023</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>318.60000000000002</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>10437189</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>3658.1</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>2116531</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>741.8</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>7092267</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>2485.6999999999998</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>1228391</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>430.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="4">
+        <v>287973924</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1423677</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="5">
+        <v>494.4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="4">
+        <v>16229</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R31" s="4">
+        <v>95235</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T31" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V31" s="4">
+        <v>420806</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X31" s="5">
+        <v>146.1</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>891407</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>309.5</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>10455277</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>3630.6</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>2151252</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>747</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>7057379</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN31" s="6">
+        <v>2450.6999999999998</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>1246646</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>432.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="4">
+        <v>290788976</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1383676</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="5">
+        <v>475.8</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="4">
+        <v>16528</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R32" s="4">
+        <v>93883</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T32" s="5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V32" s="4">
+        <v>414235</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X32" s="5">
+        <v>142.5</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>859030</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>10442862</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>3591.2</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>2154834</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>741</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>7026802</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>2416.5</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>1261226</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>433.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="4">
+        <v>293656842</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1360088</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="5">
+        <v>463.2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="4">
+        <v>16148</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R33" s="4">
+        <v>95089</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T33" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V33" s="4">
+        <v>401470</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X33" s="5">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>847381</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>288.60000000000002</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>10319386</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>3514.1</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>2144446</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>730.3</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>6937089</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN33" s="6">
+        <v>2362.3000000000002</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>1237851</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>421.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="4">
+        <v>296507061</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1390745</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="5">
+        <v>469</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="4">
+        <v>16740</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R34" s="4">
+        <v>94347</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T34" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V34" s="4">
+        <v>417438</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X34" s="5">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>862220</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>290.8</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>10174754</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>3431.5</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>2155448</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>726.9</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>6783447</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN34" s="6">
+        <v>2287.8000000000002</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>1235859</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR34" s="5">
+        <v>416.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="4">
+        <v>299398484</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1435123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="5">
+        <v>479.3</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="4">
+        <v>17309</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R35" s="4">
+        <v>94472</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T35" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V35" s="4">
+        <v>449246</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X35" s="5">
+        <v>150</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>874096</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>292</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>10019601</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>3346.6</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>2194993</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>733.1</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>6626363</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN35" s="6">
+        <v>2213.1999999999998</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>1198245</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR35" s="5">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4">
+        <v>301621157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1422970</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="5">
+        <v>471.8</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="4">
+        <v>17128</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R36" s="4">
+        <v>92160</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V36" s="4">
+        <v>447324</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X36" s="5">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>866358</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>287.2</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>9882212</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>3276.4</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>2190198</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>726.1</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>6591542</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN36" s="6">
+        <v>2185.4</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>1100472</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>364.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="4">
+        <v>304059724</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1394461</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="5">
+        <v>458.6</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="4">
+        <v>16465</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R37" s="4">
+        <v>90750</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T37" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V37" s="4">
+        <v>443563</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X37" s="5">
+        <v>145.9</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>843683</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>277.5</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>9774152</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>3214.6</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>2228887</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>733</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>6586206</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN37" s="6">
+        <v>2166.1</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>959059</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>315.39999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="4">
+        <v>307006550</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1325896</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="5">
+        <v>431.9</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" s="4">
+        <v>15399</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="5">
+        <v>5</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R38" s="4">
+        <v>89241</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="5">
+        <v>29.1</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V38" s="4">
+        <v>408742</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X38" s="5">
+        <v>133.1</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>812514</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>264.7</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>9337060</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>3041.3</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>2203313</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>717.7</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>6338095</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>2064.5</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>795652</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR38" s="5">
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="4">
+        <v>309330219</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1251248</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="5">
+        <v>404.5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" s="4">
+        <v>14722</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R39" s="4">
+        <v>85593</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V39" s="4">
+        <v>369089</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X39" s="5">
+        <v>119.3</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>781844</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>252.8</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>9112625</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>2945.9</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>2168459</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>701</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>6204601</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>2005.8</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>739565</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="4">
+        <v>311587816</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1206005</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="5">
+        <v>387.1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" s="4">
+        <v>14661</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L40" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R40" s="4">
+        <v>84175</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="5">
+        <v>27</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V40" s="4">
+        <v>354746</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X40" s="5">
+        <v>113.9</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>752423</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>241.5</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>9052743</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>2905.4</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>2185140</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>701.3</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>6151095</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN40" s="6">
+        <v>1974.1</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>716508</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR40" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="4">
+        <v>313873685</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1217057</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="5">
+        <v>387.8</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="4">
+        <v>14856</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R41" s="4">
+        <v>85141</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V41" s="4">
+        <v>355051</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X41" s="5">
+        <v>113.1</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>762009</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>242.8</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>9001992</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>2868</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>2109932</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>672.2</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>6168874</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN41" s="6">
+        <v>1965.4</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>723186</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR41" s="5">
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="4">
+        <v>316497531</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1168298</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="5">
+        <v>369.1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="4">
+        <v>14319</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N42" s="4">
+        <v>113695</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P42" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R42" s="4">
+        <v>82109</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V42" s="4">
+        <v>345093</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X42" s="5">
+        <v>109</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>726777</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>229.6</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>8651892</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>2733.6</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>1932139</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>610.5</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>6019465</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN42" s="6">
+        <v>1901.9</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>700288</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR42" s="5">
+        <v>221.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="4">
+        <v>318907401</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1153022</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="5">
+        <v>361.6</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="4">
+        <v>14164</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="4">
+        <v>118027</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P43" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R43" s="4">
+        <v>84864</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V43" s="4">
+        <v>322905</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X43" s="5">
+        <v>101.3</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>731089</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>229.2</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>8209010</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>2574.1</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>1713153</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ43" s="5">
+        <v>537.20000000000005</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>5809054</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>1821.5</v>
+      </c>
+      <c r="AO43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>686803</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR43" s="5">
+        <v>215.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="4">
+        <v>320896618</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1199310</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="5">
+        <v>373.7</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="4">
+        <v>15883</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="4">
+        <v>126134</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R44" s="4">
+        <v>91261</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V44" s="4">
+        <v>328109</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X44" s="5">
+        <v>102.2</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>764057</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB44" s="5">
+        <v>238.1</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>8024115</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>2500.5</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>1587564</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ44" s="5">
+        <v>494.7</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>5723488</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN44" s="6">
+        <v>1783.6</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>713063</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR44" s="5">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="4">
+        <v>323127513</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1248185</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="5">
+        <v>386.3</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="4">
+        <v>17250</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N45" s="4">
+        <v>130603</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P45" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R45" s="4">
+        <v>95730</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V45" s="4">
+        <v>332198</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X45" s="5">
+        <v>102.8</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>803007</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>248.5</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>7919035</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>2450.6999999999998</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>1515096</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>468.9</v>
+      </c>
+      <c r="AK45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL45" s="4">
+        <v>5638455</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>1745</v>
+      </c>
+      <c r="AO45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP45" s="4">
+        <v>765484</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR45" s="5">
         <v>236.9</v>
       </c>
     </row>
@@ -3657,26 +6412,26 @@
   <dimension ref="B1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D123"/>
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,10 +6439,10 @@
         <v>43922</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3695,10 +6450,10 @@
         <v>43647</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3706,10 +6461,10 @@
         <v>43282</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3717,10 +6472,10 @@
         <v>42917</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3728,10 +6483,10 @@
         <v>42552</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3739,10 +6494,10 @@
         <v>42186</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,10 +6505,10 @@
         <v>41821</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,10 +6516,10 @@
         <v>41456</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3772,10 +6527,10 @@
         <v>41091</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3783,10 +6538,10 @@
         <v>40725</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3794,10 +6549,10 @@
         <v>40360</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,10 +6560,10 @@
         <v>39995</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3816,10 +6571,10 @@
         <v>39630</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3827,10 +6582,10 @@
         <v>39264</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3838,10 +6593,10 @@
         <v>38899</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3849,10 +6604,10 @@
         <v>38534</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3860,10 +6615,10 @@
         <v>38169</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3871,10 +6626,10 @@
         <v>37803</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3882,10 +6637,10 @@
         <v>37438</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3893,10 +6648,10 @@
         <v>37073</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3904,10 +6659,10 @@
         <v>36708</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3915,10 +6670,10 @@
         <v>36342</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3926,10 +6681,10 @@
         <v>35977</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3937,10 +6692,10 @@
         <v>35612</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3948,10 +6703,10 @@
         <v>35247</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3959,10 +6714,10 @@
         <v>34881</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3970,10 +6725,10 @@
         <v>34516</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3981,10 +6736,10 @@
         <v>34151</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3992,10 +6747,10 @@
         <v>33786</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4003,10 +6758,10 @@
         <v>33420</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,10 +6769,10 @@
         <v>33055</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4025,10 +6780,10 @@
         <v>32690</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4036,10 +6791,10 @@
         <v>32325</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4047,10 +6802,10 @@
         <v>31959</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4058,10 +6813,10 @@
         <v>31594</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4069,10 +6824,10 @@
         <v>31229</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4080,10 +6835,10 @@
         <v>30864</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4091,10 +6846,10 @@
         <v>30498</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4102,10 +6857,10 @@
         <v>30133</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4113,10 +6868,10 @@
         <v>29768</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4124,10 +6879,10 @@
         <v>29403</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,10 +6890,10 @@
         <v>29037</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4146,10 +6901,10 @@
         <v>28672</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4157,10 +6912,10 @@
         <v>28307</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4168,10 +6923,10 @@
         <v>27942</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4179,10 +6934,10 @@
         <v>27576</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4190,10 +6945,10 @@
         <v>27211</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4201,10 +6956,10 @@
         <v>26846</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4212,10 +6967,10 @@
         <v>26481</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4223,10 +6978,10 @@
         <v>26115</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4234,10 +6989,10 @@
         <v>25750</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4245,10 +7000,10 @@
         <v>25385</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4256,10 +7011,10 @@
         <v>25020</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4267,10 +7022,10 @@
         <v>24654</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4278,10 +7033,10 @@
         <v>24289</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4289,10 +7044,10 @@
         <v>23924</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4300,10 +7055,10 @@
         <v>23559</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4311,10 +7066,10 @@
         <v>23193</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4322,10 +7077,10 @@
         <v>22828</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4333,10 +7088,10 @@
         <v>22463</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4344,10 +7099,10 @@
         <v>22098</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4355,10 +7110,10 @@
         <v>21732</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4366,10 +7121,10 @@
         <v>21367</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4377,10 +7132,10 @@
         <v>21002</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4388,10 +7143,10 @@
         <v>20637</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4399,10 +7154,10 @@
         <v>20271</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4410,10 +7165,10 @@
         <v>19906</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4421,10 +7176,10 @@
         <v>19541</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4432,10 +7187,10 @@
         <v>19176</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4443,10 +7198,10 @@
         <v>18810</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4454,10 +7209,10 @@
         <v>18445</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4465,10 +7220,10 @@
         <v>18080</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4476,10 +7231,10 @@
         <v>17715</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4487,10 +7242,10 @@
         <v>17349</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4498,10 +7253,10 @@
         <v>16984</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4509,10 +7264,10 @@
         <v>16619</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4520,10 +7275,10 @@
         <v>16254</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4531,10 +7286,10 @@
         <v>15888</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4542,10 +7297,10 @@
         <v>15523</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4553,10 +7308,10 @@
         <v>15158</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4564,10 +7319,10 @@
         <v>14793</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4575,10 +7330,10 @@
         <v>14427</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4586,10 +7341,10 @@
         <v>14062</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4597,10 +7352,10 @@
         <v>13697</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4608,10 +7363,10 @@
         <v>13332</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4619,10 +7374,10 @@
         <v>12966</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4630,10 +7385,10 @@
         <v>12601</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4641,10 +7396,10 @@
         <v>12236</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4652,10 +7407,10 @@
         <v>11871</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4663,10 +7418,10 @@
         <v>11505</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4674,10 +7429,10 @@
         <v>11140</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4685,10 +7440,10 @@
         <v>10775</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4696,10 +7451,10 @@
         <v>10410</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4707,10 +7462,10 @@
         <v>10044</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4718,10 +7473,10 @@
         <v>9679</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4729,10 +7484,10 @@
         <v>9314</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4740,10 +7495,10 @@
         <v>8949</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4751,10 +7506,10 @@
         <v>8583</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4762,10 +7517,10 @@
         <v>8218</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,10 +7528,10 @@
         <v>7853</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4784,10 +7539,10 @@
         <v>7488</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4795,10 +7550,10 @@
         <v>7122</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4806,10 +7561,10 @@
         <v>6757</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4817,10 +7572,10 @@
         <v>6392</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4828,10 +7583,10 @@
         <v>6027</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4839,10 +7594,10 @@
         <v>5661</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4850,10 +7605,10 @@
         <v>5296</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4861,10 +7616,10 @@
         <v>4931</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4872,10 +7627,10 @@
         <v>4566</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4883,10 +7638,10 @@
         <v>4200</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4894,10 +7649,10 @@
         <v>3835</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4905,10 +7660,10 @@
         <v>3470</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4916,10 +7671,10 @@
         <v>3105</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4927,10 +7682,10 @@
         <v>2739</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4938,10 +7693,10 @@
         <v>2374</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4949,10 +7704,10 @@
         <v>2009</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4960,10 +7715,10 @@
         <v>1644</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4971,10 +7726,10 @@
         <v>1278</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,10 +7737,10 @@
         <v>913</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4993,10 +7748,10 @@
         <v>548</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5004,10 +7759,10 @@
         <v>183</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
